--- a/biology/Zoologie/Gallotia_caesaris/Gallotia_caesaris.xlsx
+++ b/biology/Zoologie/Gallotia_caesaris/Gallotia_caesaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gallotia caesaris est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallotia caesaris est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles Canaries[1]. Elle se rencontre à El Hierro et à La Gomera.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles Canaries. Elle se rencontre à El Hierro et à La Gomera.
 Elle a été introduite à Madère.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (21 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (21 janvier 2013) :
 Gallotia caesaris caesaris (Lehrs, 1914) d'El Hierro
 Gallotia caesaris gomerae (Boettger &amp; Müller, 1914) de La Gomera</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cesar Rudolf Boettger[3] et la sous-espèce en référence au lieu de sa découverte.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cesar Rudolf Boettger et la sous-espèce en référence au lieu de sa découverte.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger &amp; Müller, 1914 : Preliminary notes on the local races of some Canarian lizards. Annals and Magazine of Natural History, ser. 8, vol. 14, p. 67-78 (texte intégral).
 Lehrs, 1914 : Lacerta caesaris, sp. n.Abstract of the Proceedings of the Zoological Society of London, vol. 134, p. 41 (texte intégral).</t>
